--- a/Postman_Test_Cases_multisheet.xlsx
+++ b/Postman_Test_Cases_multisheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Documents/Postman_Project/API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4442A26-996B-8C4F-B039-BE24F33F6E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EABC48A-6A17-6949-963A-599A74FB0490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,7 +895,7 @@
     <col min="4" max="4" width="35.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="63.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1422,7 +1422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1471,7 @@
     <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
